--- a/Validation_Jan2026_SUBSERVICER.xlsx
+++ b/Validation_Jan2026_SUBSERVICER.xlsx
@@ -83,7 +83,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -112,12 +112,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFEB9C"/>
+        <fgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -128,6 +128,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00996600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00375623"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -181,22 +186,34 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -218,16 +235,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,10 +266,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -277,6 +294,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +703,7 @@
     <row r="2" ht="28" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>MSR TAPE VALIDATION REPORT  |  Dec2025_Jan2026 -&gt; Jan2026 SUBSERVICER  |  Run: 2026-02-21 21:56</t>
+          <t>MSR TAPE VALIDATION REPORT  |  Dec2025_Jan2026 -&gt; Jan2026 SUBSERVICER  |  Run: 2026-02-21 22:19</t>
         </is>
       </c>
     </row>
@@ -718,7 +753,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Missing Loans (no PIF)</t>
+          <t xml:space="preserve">  - Missing Loans (total)</t>
         </is>
       </c>
       <c r="B8" s="8" t="n">
@@ -728,37 +763,49 @@
       <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  New Adds</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>200</v>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      PIF-Explained (cleared)</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Unique Loans Evaluated</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>1185</v>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Unexplained (→ Hard Stop)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
     </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  New Adds (submitted)</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+    </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>HARD STOPS</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>25</v>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Confirmed by New Add Report</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>200</v>
       </c>
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
@@ -766,123 +813,95 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>YELLOW LIGHTS</t>
+          <t xml:space="preserve">      Unconfirmed (→ Yellow Light)</t>
         </is>
       </c>
       <c r="B13" s="12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Loans Passing All Checks</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>1166</v>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Unique Loans Evaluated</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1185</v>
       </c>
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="15" t="inlineStr">
-        <is>
-          <t>HARD STOP SUMMARY BY RULE</t>
-        </is>
-      </c>
+    <row r="16">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>HARD STOPS</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Rule</t>
-        </is>
-      </c>
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Layer</t>
-        </is>
-      </c>
-      <c r="C17" s="16" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D17" s="16" t="inlineStr"/>
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>YELLOW LIGHTS</t>
+        </is>
+      </c>
+      <c r="B17" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="17" t="inlineStr">
         <is>
+          <t>Loans Passing All Checks</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>HARD STOP SUMMARY BY RULE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Layer</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="inlineStr">
+        <is>
           <t>Duplicate Loan ID</t>
         </is>
       </c>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t>Layer 1</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" s="19" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>NSF Expressed as Whole Basis Points</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="inlineStr">
-        <is>
-          <t>Layer 1</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="19" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>Rate Expressed as Whole Number</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>Layer 1</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="19" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>UPB = Zero (active loan)</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="B22" s="22" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
@@ -890,135 +909,199 @@
       <c r="C22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="n"/>
+      <c r="D22" s="23" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>UPB Exceeds Original Balance</t>
-        </is>
-      </c>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>Missing Loan (not in PIF report)</t>
+        </is>
+      </c>
+      <c r="B23" s="22" t="inlineStr">
+        <is>
+          <t>Layer 2</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="inlineStr">
+        <is>
+          <t>NSF Expressed as Whole Basis Points</t>
+        </is>
+      </c>
+      <c r="B24" s="22" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="C23" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="19" t="n"/>
-    </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>YELLOW LIGHT SUMMARY BY RULE</t>
-        </is>
-      </c>
+      <c r="C24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Rate Expressed as Whole Number</t>
+        </is>
+      </c>
+      <c r="B25" s="22" t="inlineStr">
+        <is>
+          <t>Layer 1</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="23" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="21" t="inlineStr">
         <is>
+          <t>UPB = Zero (active loan)</t>
+        </is>
+      </c>
+      <c r="B26" s="22" t="inlineStr">
+        <is>
+          <t>Layer 1</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>UPB Exceeds Original Balance</t>
+        </is>
+      </c>
+      <c r="B27" s="22" t="inlineStr">
+        <is>
+          <t>Layer 1</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="n"/>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="24" t="inlineStr">
+        <is>
+          <t>YELLOW LIGHT SUMMARY BY RULE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="25" t="inlineStr">
+        <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="B26" s="21" t="inlineStr">
+      <c r="B30" s="25" t="inlineStr">
         <is>
           <t>Layer</t>
         </is>
       </c>
-      <c r="C26" s="21" t="inlineStr">
+      <c r="C30" s="25" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="D26" s="21" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="inlineStr">
+      <c r="D30" s="25" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="26" t="inlineStr">
         <is>
           <t>NSF May Be Expressed as Percent</t>
         </is>
       </c>
-      <c r="B27" s="23" t="inlineStr">
+      <c r="B31" s="27" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C31" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="25" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="inlineStr">
+      <c r="D31" s="29" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="26" t="inlineStr">
         <is>
           <t>Next Due Date in Past (Current Loan)</t>
         </is>
       </c>
-      <c r="B28" s="23" t="inlineStr">
+      <c r="B32" s="27" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C32" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="25" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="inlineStr">
+      <c r="D32" s="29" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="26" t="inlineStr">
         <is>
           <t>P&amp;I Inflated vs Prior Month</t>
         </is>
       </c>
-      <c r="B29" s="23" t="inlineStr">
+      <c r="B33" s="27" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C33" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="25" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="inlineStr">
+      <c r="D33" s="29" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="26" t="inlineStr">
         <is>
           <t>Remaining Term Did Not Decrease</t>
         </is>
       </c>
-      <c r="B30" s="23" t="inlineStr">
+      <c r="B34" s="27" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C34" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="25" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="inlineStr">
+      <c r="D34" s="29" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="26" t="inlineStr">
         <is>
           <t>Status Bucket Skip</t>
         </is>
       </c>
-      <c r="B31" s="23" t="inlineStr">
+      <c r="B35" s="27" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="C31" s="24" t="n">
+      <c r="C35" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="25" t="n"/>
+      <c r="D35" s="29" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1031,7 +1114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1051,1101 +1134,597 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>HARD STOPS  |  Jan2026 SUBSERVICER  |  25 Issues</t>
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>HARD STOPS  |  Jan2026 SUBSERVICER  |  13 Issues</t>
         </is>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1">
-      <c r="A2" s="16" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Loan ID</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Investor</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Layer</t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="F2" s="16" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G2" s="16" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H2" s="16" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>Detail</t>
         </is>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>MSR100002</t>
         </is>
       </c>
-      <c r="B3" s="28" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C3" s="28" t="inlineStr">
+      <c r="C3" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D3" s="29" t="inlineStr">
+      <c r="D3" s="33" t="inlineStr">
         <is>
           <t>NSF Expressed as Whole Basis Points</t>
         </is>
       </c>
-      <c r="E3" s="28" t="inlineStr">
+      <c r="E3" s="32" t="inlineStr">
         <is>
           <t>Net Serv Fee</t>
         </is>
       </c>
-      <c r="F3" s="29" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <is>
           <t>46.0</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="33" t="inlineStr">
         <is>
           <t>Decimal (e.g. 0.0025 for 25bps)</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="33" t="inlineStr">
         <is>
           <t>NSF of 46.0 is &gt; 1.0; likely entered as whole bps (46) not decimal.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="32" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="34" t="inlineStr">
         <is>
           <t>MSR100005</t>
         </is>
       </c>
-      <c r="B4" s="31" t="inlineStr">
+      <c r="B4" s="35" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="C4" s="35" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D4" s="17" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>UPB Exceeds Original Balance</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
+      <c r="E4" s="35" t="inlineStr">
         <is>
           <t>Current UPB ($)</t>
         </is>
       </c>
-      <c r="F4" s="17" t="inlineStr">
+      <c r="F4" s="21" t="inlineStr">
         <is>
           <t>$1,577,419.00</t>
         </is>
       </c>
-      <c r="G4" s="17" t="inlineStr">
+      <c r="G4" s="21" t="inlineStr">
         <is>
           <t>&lt;= $325,000.00 (Orig Bal)</t>
         </is>
       </c>
-      <c r="H4" s="17" t="inlineStr">
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>Current UPB exceeds original balance — impossible for amortizing loan.</t>
         </is>
       </c>
     </row>
     <row r="5" ht="32" customHeight="1">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>MSR100006</t>
         </is>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr">
+      <c r="C5" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D5" s="29" t="inlineStr">
+      <c r="D5" s="33" t="inlineStr">
         <is>
           <t>UPB Exceeds Original Balance</t>
         </is>
       </c>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>Current UPB ($)</t>
         </is>
       </c>
-      <c r="F5" s="29" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>$2,046,985.60</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
         <is>
           <t>&lt;= $215,000.00 (Orig Bal)</t>
         </is>
       </c>
-      <c r="H5" s="29" t="inlineStr">
+      <c r="H5" s="33" t="inlineStr">
         <is>
           <t>Current UPB exceeds original balance — impossible for amortizing loan.</t>
         </is>
       </c>
     </row>
     <row r="6" ht="32" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="34" t="inlineStr">
         <is>
           <t>MSR100007</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
+      <c r="B6" s="35" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C6" s="31" t="inlineStr">
+      <c r="C6" s="35" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D6" s="17" t="inlineStr">
+      <c r="D6" s="21" t="inlineStr">
         <is>
           <t>UPB Exceeds Original Balance</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
+      <c r="E6" s="35" t="inlineStr">
         <is>
           <t>Current UPB ($)</t>
         </is>
       </c>
-      <c r="F6" s="17" t="inlineStr">
+      <c r="F6" s="21" t="inlineStr">
         <is>
           <t>$3,125,296.60</t>
         </is>
       </c>
-      <c r="G6" s="17" t="inlineStr">
+      <c r="G6" s="21" t="inlineStr">
         <is>
           <t>&lt;= $325,000.00 (Orig Bal)</t>
         </is>
       </c>
-      <c r="H6" s="17" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>Current UPB exceeds original balance — impossible for amortizing loan.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>MSR100010</t>
         </is>
       </c>
-      <c r="B7" s="28" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C7" s="28" t="inlineStr">
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D7" s="29" t="inlineStr">
+      <c r="D7" s="33" t="inlineStr">
         <is>
           <t>NSF Expressed as Whole Basis Points</t>
         </is>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="32" t="inlineStr">
         <is>
           <t>Net Serv Fee</t>
         </is>
       </c>
-      <c r="F7" s="29" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="G7" s="33" t="inlineStr">
         <is>
           <t>Decimal (e.g. 0.0025 for 25bps)</t>
         </is>
       </c>
-      <c r="H7" s="29" t="inlineStr">
+      <c r="H7" s="33" t="inlineStr">
         <is>
           <t>NSF of 28.0 is &gt; 1.0; likely entered as whole bps (28) not decimal.</t>
         </is>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="34" t="inlineStr">
         <is>
           <t>MSR100051</t>
         </is>
       </c>
-      <c r="B8" s="31" t="inlineStr">
+      <c r="B8" s="35" t="inlineStr">
         <is>
           <t>FNMA</t>
         </is>
       </c>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="C8" s="35" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D8" s="17" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>UPB = Zero (active loan)</t>
         </is>
       </c>
-      <c r="E8" s="31" t="inlineStr">
+      <c r="E8" s="35" t="inlineStr">
         <is>
           <t>Current UPB ($)</t>
         </is>
       </c>
-      <c r="F8" s="17" t="inlineStr">
+      <c r="F8" s="21" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
         <is>
           <t>&gt; $0 (not marked Paid in Full)</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>Active loan submitted with UPB of zero but not listed as PIF.</t>
         </is>
       </c>
     </row>
     <row r="9" ht="32" customHeight="1">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>MSR100202</t>
         </is>
       </c>
-      <c r="B9" s="28" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C9" s="28" t="inlineStr">
+      <c r="C9" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D9" s="29" t="inlineStr">
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>Rate Expressed as Whole Number</t>
         </is>
       </c>
-      <c r="E9" s="28" t="inlineStr">
+      <c r="E9" s="32" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="F9" s="29" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <is>
           <t>5.8300</t>
         </is>
       </c>
-      <c r="G9" s="29" t="inlineStr">
+      <c r="G9" s="33" t="inlineStr">
         <is>
           <t>Decimal (e.g. 0.0650 for 6.50%)</t>
         </is>
       </c>
-      <c r="H9" s="29" t="inlineStr">
+      <c r="H9" s="33" t="inlineStr">
         <is>
           <t>Rate of 5.8300 is &gt; 1.0; likely entered as whole number (5.83) not decimal.</t>
         </is>
       </c>
     </row>
     <row r="10" ht="32" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="A10" s="34" t="inlineStr">
         <is>
           <t>MSR100203</t>
         </is>
       </c>
-      <c r="B10" s="31" t="inlineStr">
+      <c r="B10" s="35" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C10" s="31" t="inlineStr">
+      <c r="C10" s="35" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D10" s="17" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>Rate Expressed as Whole Number</t>
         </is>
       </c>
-      <c r="E10" s="31" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="F10" s="17" t="inlineStr">
+      <c r="F10" s="21" t="inlineStr">
         <is>
           <t>4.5200</t>
         </is>
       </c>
-      <c r="G10" s="17" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
         <is>
           <t>Decimal (e.g. 0.0650 for 6.50%)</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="21" t="inlineStr">
         <is>
           <t>Rate of 4.5200 is &gt; 1.0; likely entered as whole number (4.52) not decimal.</t>
         </is>
       </c>
     </row>
     <row r="11" ht="32" customHeight="1">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>MSR100307</t>
         </is>
       </c>
-      <c r="B11" s="28" t="inlineStr">
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>Portfolio</t>
         </is>
       </c>
-      <c r="C11" s="28" t="inlineStr">
+      <c r="C11" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D11" s="29" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>UPB Exceeds Original Balance</t>
         </is>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="32" t="inlineStr">
         <is>
           <t>Current UPB ($)</t>
         </is>
       </c>
-      <c r="F11" s="29" t="inlineStr">
+      <c r="F11" s="33" t="inlineStr">
         <is>
           <t>$347,200.00</t>
         </is>
       </c>
-      <c r="G11" s="29" t="inlineStr">
+      <c r="G11" s="33" t="inlineStr">
         <is>
           <t>&lt;= $310,000.00 (Orig Bal)</t>
         </is>
       </c>
-      <c r="H11" s="29" t="inlineStr">
+      <c r="H11" s="33" t="inlineStr">
         <is>
           <t>Current UPB exceeds original balance — impossible for amortizing loan.</t>
         </is>
       </c>
     </row>
     <row r="12" ht="32" customHeight="1">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="A12" s="34" t="inlineStr">
         <is>
           <t>MSR100152</t>
         </is>
       </c>
-      <c r="B12" s="31" t="inlineStr">
+      <c r="B12" s="35" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C12" s="31" t="inlineStr">
+      <c r="C12" s="35" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D12" s="17" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>Duplicate Loan ID</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
+      <c r="E12" s="35" t="inlineStr">
         <is>
           <t>Loan ID</t>
         </is>
       </c>
-      <c r="F12" s="17" t="inlineStr">
+      <c r="F12" s="21" t="inlineStr">
         <is>
           <t>Appears 2+ times</t>
         </is>
       </c>
-      <c r="G12" s="17" t="inlineStr">
+      <c r="G12" s="21" t="inlineStr">
         <is>
           <t>Each Loan ID appears exactly once</t>
         </is>
       </c>
-      <c r="H12" s="17" t="inlineStr">
+      <c r="H12" s="21" t="inlineStr">
         <is>
           <t>Loan ID MSR100152 appears multiple times in the submission.</t>
         </is>
       </c>
     </row>
     <row r="13" ht="32" customHeight="1">
-      <c r="A13" s="27" t="inlineStr">
-        <is>
-          <t>MSR100034</t>
-        </is>
-      </c>
-      <c r="B13" s="28" t="inlineStr">
+      <c r="A13" s="31" t="inlineStr">
+        <is>
+          <t>MSR100102</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C13" s="28" t="inlineStr">
+      <c r="C13" s="32" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D13" s="29" t="inlineStr">
+      <c r="D13" s="33" t="inlineStr">
         <is>
           <t>Missing Loan (not in PIF report)</t>
         </is>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="32" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F13" s="29" t="inlineStr">
+      <c r="F13" s="33" t="inlineStr">
         <is>
           <t>Not present</t>
         </is>
       </c>
-      <c r="G13" s="29" t="inlineStr">
+      <c r="G13" s="33" t="inlineStr">
         <is>
           <t>Present (no PIF entry found for this loan ID)</t>
         </is>
       </c>
-      <c r="H13" s="29" t="inlineStr">
-        <is>
-          <t>MSR100034 existed in prior month but is absent from submission with no PIF.</t>
+      <c r="H13" s="33" t="inlineStr">
+        <is>
+          <t>MSR100102 existed in prior month but is absent from submission with no PIF.</t>
         </is>
       </c>
     </row>
     <row r="14" ht="32" customHeight="1">
-      <c r="A14" s="30" t="inlineStr">
-        <is>
-          <t>MSR100100</t>
-        </is>
-      </c>
-      <c r="B14" s="31" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C14" s="31" t="inlineStr">
+      <c r="A14" s="34" t="inlineStr">
+        <is>
+          <t>MSR100103</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="inlineStr">
+        <is>
+          <t>FHLMC</t>
+        </is>
+      </c>
+      <c r="C14" s="35" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D14" s="17" t="inlineStr">
+      <c r="D14" s="21" t="inlineStr">
         <is>
           <t>Missing Loan (not in PIF report)</t>
         </is>
       </c>
-      <c r="E14" s="31" t="inlineStr">
+      <c r="E14" s="35" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F14" s="17" t="inlineStr">
+      <c r="F14" s="21" t="inlineStr">
         <is>
           <t>Not present</t>
         </is>
       </c>
-      <c r="G14" s="17" t="inlineStr">
+      <c r="G14" s="21" t="inlineStr">
         <is>
           <t>Present (no PIF entry found for this loan ID)</t>
         </is>
       </c>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>MSR100100 existed in prior month but is absent from submission with no PIF.</t>
+      <c r="H14" s="21" t="inlineStr">
+        <is>
+          <t>MSR100103 existed in prior month but is absent from submission with no PIF.</t>
         </is>
       </c>
     </row>
     <row r="15" ht="32" customHeight="1">
-      <c r="A15" s="27" t="inlineStr">
-        <is>
-          <t>MSR100102</t>
-        </is>
-      </c>
-      <c r="B15" s="28" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C15" s="28" t="inlineStr">
+      <c r="A15" s="31" t="inlineStr">
+        <is>
+          <t>MSR100104</t>
+        </is>
+      </c>
+      <c r="B15" s="32" t="inlineStr">
+        <is>
+          <t>GNMA</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D15" s="29" t="inlineStr">
+      <c r="D15" s="33" t="inlineStr">
         <is>
           <t>Missing Loan (not in PIF report)</t>
         </is>
       </c>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="E15" s="32" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F15" s="29" t="inlineStr">
+      <c r="F15" s="33" t="inlineStr">
         <is>
           <t>Not present</t>
         </is>
       </c>
-      <c r="G15" s="29" t="inlineStr">
+      <c r="G15" s="33" t="inlineStr">
         <is>
           <t>Present (no PIF entry found for this loan ID)</t>
         </is>
       </c>
-      <c r="H15" s="29" t="inlineStr">
-        <is>
-          <t>MSR100102 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="32" customHeight="1">
-      <c r="A16" s="30" t="inlineStr">
-        <is>
-          <t>MSR100103</t>
-        </is>
-      </c>
-      <c r="B16" s="31" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C16" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D16" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G16" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>MSR100103 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="32" customHeight="1">
-      <c r="A17" s="27" t="inlineStr">
-        <is>
-          <t>MSR100104</t>
-        </is>
-      </c>
-      <c r="B17" s="28" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C17" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E17" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F17" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G17" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H17" s="29" t="inlineStr">
+      <c r="H15" s="33" t="inlineStr">
         <is>
           <t>MSR100104 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="32" customHeight="1">
-      <c r="A18" s="30" t="inlineStr">
-        <is>
-          <t>MSR100241</t>
-        </is>
-      </c>
-      <c r="B18" s="31" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C18" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D18" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E18" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F18" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G18" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t>MSR100241 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="32" customHeight="1">
-      <c r="A19" s="27" t="inlineStr">
-        <is>
-          <t>MSR100250</t>
-        </is>
-      </c>
-      <c r="B19" s="28" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C19" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D19" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G19" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H19" s="29" t="inlineStr">
-        <is>
-          <t>MSR100250 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="32" customHeight="1">
-      <c r="A20" s="30" t="inlineStr">
-        <is>
-          <t>MSR100252</t>
-        </is>
-      </c>
-      <c r="B20" s="31" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C20" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D20" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E20" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F20" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G20" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H20" s="17" t="inlineStr">
-        <is>
-          <t>MSR100252 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="32" customHeight="1">
-      <c r="A21" s="27" t="inlineStr">
-        <is>
-          <t>MSR100253</t>
-        </is>
-      </c>
-      <c r="B21" s="28" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C21" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D21" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F21" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G21" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H21" s="29" t="inlineStr">
-        <is>
-          <t>MSR100253 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="32" customHeight="1">
-      <c r="A22" s="30" t="inlineStr">
-        <is>
-          <t>MSR100264</t>
-        </is>
-      </c>
-      <c r="B22" s="31" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C22" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D22" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E22" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F22" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G22" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H22" s="17" t="inlineStr">
-        <is>
-          <t>MSR100264 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="32" customHeight="1">
-      <c r="A23" s="27" t="inlineStr">
-        <is>
-          <t>MSR100625</t>
-        </is>
-      </c>
-      <c r="B23" s="28" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C23" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D23" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E23" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F23" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G23" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H23" s="29" t="inlineStr">
-        <is>
-          <t>MSR100625 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="32" customHeight="1">
-      <c r="A24" s="30" t="inlineStr">
-        <is>
-          <t>MSR100709</t>
-        </is>
-      </c>
-      <c r="B24" s="31" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C24" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D24" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E24" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G24" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H24" s="17" t="inlineStr">
-        <is>
-          <t>MSR100709 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="32" customHeight="1">
-      <c r="A25" s="27" t="inlineStr">
-        <is>
-          <t>MSR100911</t>
-        </is>
-      </c>
-      <c r="B25" s="28" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C25" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D25" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E25" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F25" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G25" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H25" s="29" t="inlineStr">
-        <is>
-          <t>MSR100911 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="32" customHeight="1">
-      <c r="A26" s="30" t="inlineStr">
-        <is>
-          <t>MSR100913</t>
-        </is>
-      </c>
-      <c r="B26" s="31" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C26" s="31" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E26" s="31" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>MSR100913 existed in prior month but is absent from submission with no PIF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="32" customHeight="1">
-      <c r="A27" s="27" t="inlineStr">
-        <is>
-          <t>MSR100952</t>
-        </is>
-      </c>
-      <c r="B27" s="28" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D27" s="29" t="inlineStr">
-        <is>
-          <t>Missing Loan (not in PIF report)</t>
-        </is>
-      </c>
-      <c r="E27" s="28" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F27" s="29" t="inlineStr">
-        <is>
-          <t>Not present</t>
-        </is>
-      </c>
-      <c r="G27" s="29" t="inlineStr">
-        <is>
-          <t>Present (no PIF entry found for this loan ID)</t>
-        </is>
-      </c>
-      <c r="H27" s="29" t="inlineStr">
-        <is>
-          <t>MSR100952 existed in prior month but is absent from submission with no PIF.</t>
         </is>
       </c>
     </row>
@@ -2183,429 +1762,429 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>YELLOW LIGHTS  |  Jan2026 SUBSERVICER  |  9 Items</t>
         </is>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1">
-      <c r="A2" s="21" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Loan ID</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Investor</t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Layer</t>
         </is>
       </c>
-      <c r="D2" s="21" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>Rule</t>
         </is>
       </c>
-      <c r="E2" s="21" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="F2" s="21" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G2" s="21" t="inlineStr">
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H2" s="21" t="inlineStr">
+      <c r="H2" s="25" t="inlineStr">
         <is>
           <t>Detail</t>
         </is>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="31" t="inlineStr">
         <is>
           <t>MSR100000</t>
         </is>
       </c>
-      <c r="B3" s="28" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <is>
           <t>FNMA</t>
         </is>
       </c>
-      <c r="C3" s="28" t="inlineStr">
+      <c r="C3" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D3" s="29" t="inlineStr">
+      <c r="D3" s="33" t="inlineStr">
         <is>
           <t>NSF May Be Expressed as Percent</t>
         </is>
       </c>
-      <c r="E3" s="28" t="inlineStr">
+      <c r="E3" s="32" t="inlineStr">
         <is>
           <t>Net Serv Fee</t>
         </is>
       </c>
-      <c r="F3" s="29" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <is>
           <t>0.2500</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="33" t="inlineStr">
         <is>
           <t>~0.0019–0.0069 (GNMA) or 0.0025 (FNMA/FHLMC)</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="33" t="inlineStr">
         <is>
           <t>NSF of 0.2500 is unusually high; check whether it was entered as % (e.g. 0.25% = 0.0025 decimal).</t>
         </is>
       </c>
     </row>
     <row r="4" ht="32" customHeight="1">
-      <c r="A4" s="33" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>MSR100003</t>
         </is>
       </c>
-      <c r="B4" s="34" t="inlineStr">
+      <c r="B4" s="38" t="inlineStr">
         <is>
           <t>FNMA</t>
         </is>
       </c>
-      <c r="C4" s="34" t="inlineStr">
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>NSF May Be Expressed as Percent</t>
         </is>
       </c>
-      <c r="E4" s="34" t="inlineStr">
+      <c r="E4" s="38" t="inlineStr">
         <is>
           <t>Net Serv Fee</t>
         </is>
       </c>
-      <c r="F4" s="22" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
         <is>
           <t>0.2500</t>
         </is>
       </c>
-      <c r="G4" s="22" t="inlineStr">
+      <c r="G4" s="26" t="inlineStr">
         <is>
           <t>~0.0019–0.0069 (GNMA) or 0.0025 (FNMA/FHLMC)</t>
         </is>
       </c>
-      <c r="H4" s="22" t="inlineStr">
+      <c r="H4" s="26" t="inlineStr">
         <is>
           <t>NSF of 0.2500 is unusually high; check whether it was entered as % (e.g. 0.25% = 0.0025 decimal).</t>
         </is>
       </c>
     </row>
     <row r="5" ht="32" customHeight="1">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>MSR100011</t>
         </is>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>GNMA</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr">
+      <c r="C5" s="32" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D5" s="29" t="inlineStr">
+      <c r="D5" s="33" t="inlineStr">
         <is>
           <t>Next Due Date in Past (Current Loan)</t>
         </is>
       </c>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>Next Due Date</t>
         </is>
       </c>
-      <c r="F5" s="29" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
         <is>
           <t>&gt;= 2026-01-31 for Current-status loans</t>
         </is>
       </c>
-      <c r="H5" s="29" t="inlineStr">
+      <c r="H5" s="33" t="inlineStr">
         <is>
           <t>Current loan has NDD in the past — may indicate unreported delinquency.</t>
         </is>
       </c>
     </row>
     <row r="6" ht="32" customHeight="1">
-      <c r="A6" s="33" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>MSR100012</t>
         </is>
       </c>
-      <c r="B6" s="34" t="inlineStr">
+      <c r="B6" s="38" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C6" s="34" t="inlineStr">
+      <c r="C6" s="38" t="inlineStr">
         <is>
           <t>Layer 1</t>
         </is>
       </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="D6" s="26" t="inlineStr">
         <is>
           <t>Next Due Date in Past (Current Loan)</t>
         </is>
       </c>
-      <c r="E6" s="34" t="inlineStr">
+      <c r="E6" s="38" t="inlineStr">
         <is>
           <t>Next Due Date</t>
         </is>
       </c>
-      <c r="F6" s="22" t="inlineStr">
+      <c r="F6" s="26" t="inlineStr">
         <is>
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G6" s="22" t="inlineStr">
+      <c r="G6" s="26" t="inlineStr">
         <is>
           <t>&gt;= 2026-01-31 for Current-status loans</t>
         </is>
       </c>
-      <c r="H6" s="22" t="inlineStr">
+      <c r="H6" s="26" t="inlineStr">
         <is>
           <t>Current loan has NDD in the past — may indicate unreported delinquency.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="31" t="inlineStr">
+        <is>
+          <t>MSR100004</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C7" s="32" t="inlineStr">
+        <is>
+          <t>Layer 2</t>
+        </is>
+      </c>
+      <c r="D7" s="33" t="inlineStr">
+        <is>
+          <t>Status Bucket Skip</t>
+        </is>
+      </c>
+      <c r="E7" s="32" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F7" s="33" t="inlineStr">
+        <is>
+          <t>Current -&gt; 90+ DPD</t>
+        </is>
+      </c>
+      <c r="G7" s="33" t="inlineStr">
+        <is>
+          <t>Max 1-bucket change per month</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t>Loan went from Current to 90+ DPD in one month — skipped intermediate bucket(s).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1">
+      <c r="A8" s="37" t="inlineStr">
+        <is>
+          <t>MSR100009</t>
+        </is>
+      </c>
+      <c r="B8" s="38" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C8" s="38" t="inlineStr">
+        <is>
+          <t>Layer 2</t>
+        </is>
+      </c>
+      <c r="D8" s="26" t="inlineStr">
+        <is>
+          <t>P&amp;I Inflated vs Prior Month</t>
+        </is>
+      </c>
+      <c r="E8" s="38" t="inlineStr">
+        <is>
+          <t>P&amp;I ($)</t>
+        </is>
+      </c>
+      <c r="F8" s="26" t="inlineStr">
+        <is>
+          <t>$1,718.66</t>
+        </is>
+      </c>
+      <c r="G8" s="26" t="inlineStr">
+        <is>
+          <t>~$1,432.22 (unchanged from prior month)</t>
+        </is>
+      </c>
+      <c r="H8" s="26" t="inlineStr">
+        <is>
+          <t>Fixed-rate P&amp;I payment is 20.0% higher than prior month — verify no system update error.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>MSR100001</t>
         </is>
       </c>
-      <c r="B7" s="28" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C7" s="28" t="inlineStr">
+      <c r="C9" s="32" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D7" s="29" t="inlineStr">
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>Status Bucket Skip</t>
         </is>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E9" s="32" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="F7" s="29" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <is>
           <t>Current -&gt; 90+ DPD</t>
         </is>
       </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="G9" s="33" t="inlineStr">
         <is>
           <t>Max 1-bucket change per month</t>
         </is>
       </c>
-      <c r="H7" s="29" t="inlineStr">
+      <c r="H9" s="33" t="inlineStr">
         <is>
           <t>Loan went from Current to 90+ DPD in one month — skipped intermediate bucket(s).</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1">
-      <c r="A8" s="33" t="inlineStr">
+    <row r="10" ht="32" customHeight="1">
+      <c r="A10" s="37" t="inlineStr">
         <is>
           <t>MSR100008</t>
         </is>
       </c>
-      <c r="B8" s="34" t="inlineStr">
+      <c r="B10" s="38" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C8" s="34" t="inlineStr">
+      <c r="C10" s="38" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D8" s="22" t="inlineStr">
+      <c r="D10" s="26" t="inlineStr">
         <is>
           <t>P&amp;I Inflated vs Prior Month</t>
         </is>
       </c>
-      <c r="E8" s="34" t="inlineStr">
+      <c r="E10" s="38" t="inlineStr">
         <is>
           <t>P&amp;I ($)</t>
         </is>
       </c>
-      <c r="F8" s="22" t="inlineStr">
+      <c r="F10" s="26" t="inlineStr">
         <is>
           <t>$2,185.25</t>
         </is>
       </c>
-      <c r="G8" s="22" t="inlineStr">
+      <c r="G10" s="26" t="inlineStr">
         <is>
           <t>~$1,821.04 (unchanged from prior month)</t>
         </is>
       </c>
-      <c r="H8" s="22" t="inlineStr">
+      <c r="H10" s="26" t="inlineStr">
         <is>
           <t>Fixed-rate P&amp;I payment is 20.0% higher than prior month — verify no system update error.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="32" customHeight="1">
-      <c r="A9" s="27" t="inlineStr">
-        <is>
-          <t>MSR100009</t>
-        </is>
-      </c>
-      <c r="B9" s="28" t="inlineStr">
+    <row r="11" ht="32" customHeight="1">
+      <c r="A11" s="31" t="inlineStr">
+        <is>
+          <t>MSR100013</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>FNMA</t>
         </is>
       </c>
-      <c r="C9" s="28" t="inlineStr">
+      <c r="C11" s="32" t="inlineStr">
         <is>
           <t>Layer 2</t>
         </is>
       </c>
-      <c r="D9" s="29" t="inlineStr">
-        <is>
-          <t>P&amp;I Inflated vs Prior Month</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>P&amp;I ($)</t>
-        </is>
-      </c>
-      <c r="F9" s="29" t="inlineStr">
-        <is>
-          <t>$1,718.66</t>
-        </is>
-      </c>
-      <c r="G9" s="29" t="inlineStr">
-        <is>
-          <t>~$1,432.22 (unchanged from prior month)</t>
-        </is>
-      </c>
-      <c r="H9" s="29" t="inlineStr">
-        <is>
-          <t>Fixed-rate P&amp;I payment is 20.0% higher than prior month — verify no system update error.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="32" customHeight="1">
-      <c r="A10" s="33" t="inlineStr">
-        <is>
-          <t>MSR100004</t>
-        </is>
-      </c>
-      <c r="B10" s="34" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C10" s="34" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>Status Bucket Skip</t>
-        </is>
-      </c>
-      <c r="E10" s="34" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="inlineStr">
-        <is>
-          <t>Current -&gt; 90+ DPD</t>
-        </is>
-      </c>
-      <c r="G10" s="22" t="inlineStr">
-        <is>
-          <t>Max 1-bucket change per month</t>
-        </is>
-      </c>
-      <c r="H10" s="22" t="inlineStr">
-        <is>
-          <t>Loan went from Current to 90+ DPD in one month — skipped intermediate bucket(s).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="32" customHeight="1">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t>MSR100013</t>
-        </is>
-      </c>
-      <c r="B11" s="28" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C11" s="28" t="inlineStr">
-        <is>
-          <t>Layer 2</t>
-        </is>
-      </c>
-      <c r="D11" s="29" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Remaining Term Did Not Decrease</t>
         </is>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="32" t="inlineStr">
         <is>
           <t>Rem Term</t>
         </is>
       </c>
-      <c r="F11" s="29" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="G11" s="29" t="inlineStr">
-        <is>
-          <t>&lt;= 111.0 (should not increase)</t>
-        </is>
-      </c>
-      <c r="H11" s="29" t="inlineStr">
-        <is>
-          <t>Rem term increased from 111.0 (prior) to 112.0 (current) — should never increase for an amortizing loan.</t>
+      <c r="F11" s="33" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G11" s="33" t="inlineStr">
+        <is>
+          <t>&lt;= 110 (should decrease by 1)</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t>Rem term did not decrease from 111.0 (prior) to 111.0 (current) — expected 110.</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2640,417 +2219,452 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>MISSING LOANS  |  In Dec2025_Jan2026 but absent from Jan2026 SUBSERVICER (no PIF reported)  |  15 Loans</t>
+      <c r="A1" s="30" t="inlineStr">
+        <is>
+          <t>UNEXPLAINED MISSING LOANS — ACTION REQUIRED  |  In Dec2025_Jan2026, absent from Jan2026 SUBSERVICER, not in PIF report  |  3 Loans</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="16" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Loan ID</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Investor</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Loan Type</t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>Prior UPB ($)</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
-        <is>
-          <t>Action Required</t>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>Note</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
+        <is>
+          <t>MSR100102</t>
+        </is>
+      </c>
+      <c r="B3" s="40" t="inlineStr">
+        <is>
+          <t>FHLMC</t>
+        </is>
+      </c>
+      <c r="C3" s="40" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D3" s="41" t="n">
+        <v>197083.68</v>
+      </c>
+      <c r="E3" s="42" t="inlineStr">
+        <is>
+          <t>Confirm PIF or resubmit tape with loan included.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>MSR100103</t>
+        </is>
+      </c>
+      <c r="B4" s="44" t="inlineStr">
+        <is>
+          <t>FHLMC</t>
+        </is>
+      </c>
+      <c r="C4" s="44" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D4" s="45" t="n">
+        <v>181657.15</v>
+      </c>
+      <c r="E4" s="46" t="inlineStr">
+        <is>
+          <t>Confirm PIF or resubmit tape with loan included.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="inlineStr">
+        <is>
+          <t>MSR100104</t>
+        </is>
+      </c>
+      <c r="B5" s="40" t="inlineStr">
+        <is>
+          <t>GNMA</t>
+        </is>
+      </c>
+      <c r="C5" s="40" t="inlineStr">
+        <is>
+          <t>FHA</t>
+        </is>
+      </c>
+      <c r="D5" s="41" t="n">
+        <v>148285.6</v>
+      </c>
+      <c r="E5" s="42" t="inlineStr">
+        <is>
+          <t>Confirm PIF or resubmit tape with loan included.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="47" t="inlineStr">
+        <is>
+          <t>PIF-EXPLAINED LOANS — CLEARED  |  In Dec2025_Jan2026, absent from Jan2026 SUBSERVICER, confirmed in PIF report  |  12 Loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="48" t="inlineStr">
+        <is>
+          <t>Loan ID</t>
+        </is>
+      </c>
+      <c r="B8" s="48" t="inlineStr">
+        <is>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C8" s="48" t="inlineStr">
+        <is>
+          <t>Loan Type</t>
+        </is>
+      </c>
+      <c r="D8" s="48" t="inlineStr">
+        <is>
+          <t>Prior UPB ($)</t>
+        </is>
+      </c>
+      <c r="E8" s="48" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>MSR100034</t>
         </is>
       </c>
-      <c r="B3" s="36" t="inlineStr">
+      <c r="B9" s="40" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C3" s="36" t="inlineStr">
+      <c r="C9" s="40" t="inlineStr">
         <is>
           <t>FHA</t>
         </is>
       </c>
-      <c r="D3" s="37" t="n">
+      <c r="D9" s="41" t="n">
         <v>424666.91</v>
       </c>
-      <c r="E3" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="39" t="inlineStr">
+      <c r="E9" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="49" t="inlineStr">
         <is>
           <t>MSR100100</t>
         </is>
       </c>
-      <c r="B4" s="40" t="inlineStr">
+      <c r="B10" s="50" t="inlineStr">
         <is>
           <t>FNMA</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C10" s="50" t="inlineStr">
         <is>
           <t>Conventional</t>
         </is>
       </c>
-      <c r="D4" s="41" t="n">
+      <c r="D10" s="51" t="n">
         <v>291530.86</v>
       </c>
-      <c r="E4" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="35" t="inlineStr">
-        <is>
-          <t>MSR100102</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="inlineStr">
+      <c r="E10" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="inlineStr">
+        <is>
+          <t>MSR100241</t>
+        </is>
+      </c>
+      <c r="B11" s="40" t="inlineStr">
+        <is>
+          <t>GNMA</t>
+        </is>
+      </c>
+      <c r="C11" s="40" t="inlineStr">
+        <is>
+          <t>FHA</t>
+        </is>
+      </c>
+      <c r="D11" s="41" t="n">
+        <v>265375.94</v>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="49" t="inlineStr">
+        <is>
+          <t>MSR100250</t>
+        </is>
+      </c>
+      <c r="B12" s="50" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C12" s="50" t="inlineStr">
+        <is>
+          <t>FHA</t>
+        </is>
+      </c>
+      <c r="D12" s="51" t="n">
+        <v>106147.08</v>
+      </c>
+      <c r="E12" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="inlineStr">
+        <is>
+          <t>MSR100252</t>
+        </is>
+      </c>
+      <c r="B13" s="40" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C13" s="40" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D13" s="41" t="n">
+        <v>365421</v>
+      </c>
+      <c r="E13" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="49" t="inlineStr">
+        <is>
+          <t>MSR100253</t>
+        </is>
+      </c>
+      <c r="B14" s="50" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C5" s="36" t="inlineStr">
+      <c r="C14" s="50" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D14" s="51" t="n">
+        <v>304042.36</v>
+      </c>
+      <c r="E14" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="inlineStr">
+        <is>
+          <t>MSR100264</t>
+        </is>
+      </c>
+      <c r="B15" s="40" t="inlineStr">
+        <is>
+          <t>GNMA</t>
+        </is>
+      </c>
+      <c r="C15" s="40" t="inlineStr">
+        <is>
+          <t>USDA</t>
+        </is>
+      </c>
+      <c r="D15" s="41" t="n">
+        <v>502226.21</v>
+      </c>
+      <c r="E15" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="49" t="inlineStr">
+        <is>
+          <t>MSR100625</t>
+        </is>
+      </c>
+      <c r="B16" s="50" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C16" s="50" t="inlineStr">
         <is>
           <t>Conventional</t>
         </is>
       </c>
-      <c r="D5" s="37" t="n">
-        <v>197083.68</v>
-      </c>
-      <c r="E5" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="inlineStr">
-        <is>
-          <t>MSR100103</t>
-        </is>
-      </c>
-      <c r="B6" s="40" t="inlineStr">
+      <c r="D16" s="51" t="n">
+        <v>450060.9</v>
+      </c>
+      <c r="E16" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="39" t="inlineStr">
+        <is>
+          <t>MSR100709</t>
+        </is>
+      </c>
+      <c r="B17" s="40" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C17" s="40" t="inlineStr">
+        <is>
+          <t>FHA</t>
+        </is>
+      </c>
+      <c r="D17" s="41" t="n">
+        <v>311889.86</v>
+      </c>
+      <c r="E17" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="49" t="inlineStr">
+        <is>
+          <t>MSR100911</t>
+        </is>
+      </c>
+      <c r="B18" s="50" t="inlineStr">
+        <is>
+          <t>FNMA</t>
+        </is>
+      </c>
+      <c r="C18" s="50" t="inlineStr">
+        <is>
+          <t>FHA</t>
+        </is>
+      </c>
+      <c r="D18" s="51" t="n">
+        <v>212771.66</v>
+      </c>
+      <c r="E18" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="39" t="inlineStr">
+        <is>
+          <t>MSR100913</t>
+        </is>
+      </c>
+      <c r="B19" s="40" t="inlineStr">
         <is>
           <t>FHLMC</t>
         </is>
       </c>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="C19" s="40" t="inlineStr">
         <is>
           <t>Conventional</t>
         </is>
       </c>
-      <c r="D6" s="41" t="n">
-        <v>181657.15</v>
-      </c>
-      <c r="E6" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="35" t="inlineStr">
-        <is>
-          <t>MSR100104</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C7" s="36" t="inlineStr">
+      <c r="D19" s="41" t="n">
+        <v>374742.05</v>
+      </c>
+      <c r="E19" s="42" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="49" t="inlineStr">
+        <is>
+          <t>MSR100952</t>
+        </is>
+      </c>
+      <c r="B20" s="50" t="inlineStr">
+        <is>
+          <t>FHLMC</t>
+        </is>
+      </c>
+      <c r="C20" s="50" t="inlineStr">
         <is>
           <t>FHA</t>
         </is>
       </c>
-      <c r="D7" s="37" t="n">
-        <v>148285.6</v>
-      </c>
-      <c r="E7" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="39" t="inlineStr">
-        <is>
-          <t>MSR100241</t>
-        </is>
-      </c>
-      <c r="B8" s="40" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C8" s="40" t="inlineStr">
-        <is>
-          <t>FHA</t>
-        </is>
-      </c>
-      <c r="D8" s="41" t="n">
-        <v>265375.94</v>
-      </c>
-      <c r="E8" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="35" t="inlineStr">
-        <is>
-          <t>MSR100250</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C9" s="36" t="inlineStr">
-        <is>
-          <t>FHA</t>
-        </is>
-      </c>
-      <c r="D9" s="37" t="n">
-        <v>106147.08</v>
-      </c>
-      <c r="E9" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="39" t="inlineStr">
-        <is>
-          <t>MSR100252</t>
-        </is>
-      </c>
-      <c r="B10" s="40" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C10" s="40" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="D10" s="41" t="n">
-        <v>365421</v>
-      </c>
-      <c r="E10" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="35" t="inlineStr">
-        <is>
-          <t>MSR100253</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C11" s="36" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D11" s="37" t="n">
-        <v>304042.36</v>
-      </c>
-      <c r="E11" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="39" t="inlineStr">
-        <is>
-          <t>MSR100264</t>
-        </is>
-      </c>
-      <c r="B12" s="40" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="C12" s="40" t="inlineStr">
-        <is>
-          <t>USDA</t>
-        </is>
-      </c>
-      <c r="D12" s="41" t="n">
-        <v>502226.21</v>
-      </c>
-      <c r="E12" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="35" t="inlineStr">
-        <is>
-          <t>MSR100625</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C13" s="36" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="D13" s="37" t="n">
-        <v>450060.9</v>
-      </c>
-      <c r="E13" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="39" t="inlineStr">
-        <is>
-          <t>MSR100709</t>
-        </is>
-      </c>
-      <c r="B14" s="40" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C14" s="40" t="inlineStr">
-        <is>
-          <t>FHA</t>
-        </is>
-      </c>
-      <c r="D14" s="41" t="n">
-        <v>311889.86</v>
-      </c>
-      <c r="E14" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="inlineStr">
-        <is>
-          <t>MSR100911</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="inlineStr">
-        <is>
-          <t>FNMA</t>
-        </is>
-      </c>
-      <c r="C15" s="36" t="inlineStr">
-        <is>
-          <t>FHA</t>
-        </is>
-      </c>
-      <c r="D15" s="37" t="n">
-        <v>212771.66</v>
-      </c>
-      <c r="E15" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="39" t="inlineStr">
-        <is>
-          <t>MSR100913</t>
-        </is>
-      </c>
-      <c r="B16" s="40" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C16" s="40" t="inlineStr">
-        <is>
-          <t>Conventional</t>
-        </is>
-      </c>
-      <c r="D16" s="41" t="n">
-        <v>374742.05</v>
-      </c>
-      <c r="E16" s="42" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="35" t="inlineStr">
-        <is>
-          <t>MSR100952</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="inlineStr">
-        <is>
-          <t>FHLMC</t>
-        </is>
-      </c>
-      <c r="C17" s="36" t="inlineStr">
-        <is>
-          <t>FHA</t>
-        </is>
-      </c>
-      <c r="D17" s="37" t="n">
+      <c r="D20" s="51" t="n">
         <v>233578.42</v>
       </c>
-      <c r="E17" s="38" t="inlineStr">
-        <is>
-          <t>Confirm PIF or resubmit tape with loan included.</t>
+      <c r="E20" s="52" t="inlineStr">
+        <is>
+          <t>Confirmed Paid in Full — cleared by PIF recon report.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
